--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB17ADA3-EF26-45A0-AFBA-48D09F77C487}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC73C0-8C84-4BC8-8620-A344A888C41E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -537,11 +537,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>540</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC73C0-8C84-4BC8-8620-A344A888C41E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4477AE7-C0BD-47EC-AD72-F05D908F1F52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>EMILY'S PET SITTING TIME LOG BOOK</t>
   </si>
@@ -68,6 +68,19 @@
 Contact page testing
 Contact page error messages
 Contact page layout
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes
+About page basic setup
+Services page basic setup
+Photos page basic setup
+Testimonalis page basic setup
+File Upload Tutorial (10m)
+local host connection
+Admin login page setup
+About_Update page setup
+About_Update form working
 </t>
   </si>
 </sst>
@@ -112,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +149,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,7 +474,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,19 +489,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -500,7 +516,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43697</v>
+        <v>43605</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -516,7 +532,7 @@
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43698</v>
+        <v>43606</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -531,7 +547,7 @@
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43699</v>
+        <v>43607</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -544,10 +560,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.2673611111111111</v>
+      </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,7 +620,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>620</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4477AE7-C0BD-47EC-AD72-F05D908F1F52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5CB53-0BDC-41E0-B0F0-312496837B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>EMILY'S PET SITTING TIME LOG BOOK</t>
   </si>
@@ -76,12 +76,17 @@
 Services page basic setup
 Photos page basic setup
 Testimonalis page basic setup
-File Upload Tutorial (10m)
 local host connection
 Admin login page setup
 About_Update page setup
 About_Update form working
 </t>
+  </si>
+  <si>
+    <t>About_Update page
+About Page
+Database work
+Service_Update page</t>
   </si>
 </sst>
 </file>
@@ -474,7 +479,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +565,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43608</v>
       </c>
@@ -568,17 +573,26 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2673611111111111</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,7 +634,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>1005</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5CB53-0BDC-41E0-B0F0-312496837B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551FB26-B224-4634-BCE5-412875603963}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>EMILY'S PET SITTING TIME LOG BOOK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total minutes: </t>
   </si>
   <si>
     <t xml:space="preserve">Notes
@@ -87,6 +81,29 @@
 About Page
 Database work
 Service_Update page</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>Services_Update page
+Services page
+Template -&gt; h, sb, f phps</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutes: </t>
+  </si>
+  <si>
+    <t>Total Minutes:</t>
+  </si>
+  <si>
+    <t>PET CARE BY EMILY TIME LOG BOOK</t>
+  </si>
+  <si>
+    <t>Total  Hours:</t>
   </si>
 </sst>
 </file>
@@ -130,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +171,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -478,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B421838-5A32-49D6-9934-4D37D400905E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,35 +508,35 @@
     <col min="2" max="2" width="31.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,7 +544,7 @@
         <v>43605</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>2.0833333333333332E-2</v>
@@ -540,7 +560,7 @@
         <v>43606</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>0.1875</v>
@@ -555,7 +575,7 @@
         <v>43607</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>0.22222222222222221</v>
@@ -570,7 +590,7 @@
         <v>43608</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>0.26041666666666669</v>
@@ -585,7 +605,7 @@
         <v>43609</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>0.16666666666666666</v>
@@ -596,15 +616,33 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.23611111111111113</v>
+      </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>340.00000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,19 +665,43 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <f>D14/60</f>
+        <v>27.25</v>
+      </c>
+      <c r="E16" s="8">
+        <f>MOD(D14,60)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551FB26-B224-4634-BCE5-412875603963}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E5CDF-C8D7-4DD1-9751-F31EF8260A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -105,12 +105,48 @@
   <si>
     <t>Total  Hours:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Services_Update page styling
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add/Update/Delete Confirm Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">About_Update page styling
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Testimonials page
+Testimonials Update page
+Photos page
+Photos Update page
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +156,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -499,7 +543,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,16 +689,34 @@
         <v>340.00000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.18055555555555555</v>
+      </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,7 +734,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>1635</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,11 +748,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="8">
         <f>D14/60</f>
-        <v>27.25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E16" s="8">
         <f>MOD(D14,60)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E5CDF-C8D7-4DD1-9751-F31EF8260A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB828F-0751-45F7-9852-78BC87E3E7FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -140,6 +140,11 @@
 Photos page
 Photos Update page
 </t>
+  </si>
+  <si>
+    <t>Photos page
+Photo Caption page
+Contact page</t>
   </si>
 </sst>
 </file>
@@ -543,7 +548,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +724,19 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43656</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.375E-2</v>
+      </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,7 +748,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
-        <v>2000</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,11 +762,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="8">
         <f>D14/60</f>
-        <v>33.333333333333336</v>
+        <v>35.583333333333336</v>
       </c>
       <c r="E16" s="8">
         <f>MOD(D14,60)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BB828F-0751-45F7-9852-78BC87E3E7FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307F8B9-69BB-40A9-84FC-BAE0886003AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -145,6 +145,15 @@
     <t>Photos page
 Photo Caption page
 Contact page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Page
+Calendar
+</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B421838-5A32-49D6-9934-4D37D400905E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +624,7 @@
         <v>0.1875</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D12" si="0">C4*1440</f>
+        <f t="shared" ref="D4:D14" si="0">C4*1440</f>
         <v>270</v>
       </c>
     </row>
@@ -739,44 +748,75 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43657</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43658</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="8">
-        <f>SUM(D3:D13)</f>
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="8">
-        <f>D14/60</f>
-        <v>35.583333333333336</v>
-      </c>
-      <c r="E16" s="8">
-        <f>MOD(D14,60)</f>
-        <v>35</v>
+        <f>SUM(D3:D15)</f>
+        <v>2430</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="8">
+        <f>D16/60</f>
+        <v>40.5</v>
+      </c>
+      <c r="E18" s="8">
+        <f>MOD(D16,60)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307F8B9-69BB-40A9-84FC-BAE0886003AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8586D7C-9CEB-4698-888B-1BCCE7B3F270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -106,9 +106,29 @@
     <t>Total  Hours:</t>
   </si>
   <si>
+    <t xml:space="preserve">Testimonials page
+Testimonials Update page
+Photos page
+Photos Update page
+</t>
+  </si>
+  <si>
+    <t>Photos page
+Photo Caption page
+Contact page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Page
+Calendar
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Services_Update page styling
-</t>
+      <t>Services_Update page styling</t>
     </r>
     <r>
       <rPr>
@@ -119,7 +139,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Add/Update/Delete Confirm Page
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -135,25 +155,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Testimonials page
-Testimonials Update page
-Photos page
-Photos Update page
-</t>
-  </si>
-  <si>
-    <t>Photos page
-Photo Caption page
-Contact page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Page
-Calendar
-</t>
+    <t>Scheduler
+Calendar Page</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B421838-5A32-49D6-9934-4D37D400905E}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +627,7 @@
         <v>0.1875</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D14" si="0">C4*1440</f>
+        <f t="shared" ref="D4:D15" si="0">C4*1440</f>
         <v>270</v>
       </c>
     </row>
@@ -703,12 +706,12 @@
         <v>340.00000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43615</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>7.2916666666666671E-2</v>
@@ -723,7 +726,7 @@
         <v>43622</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>0.18055555555555555</v>
@@ -738,7 +741,7 @@
         <v>43656</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>9.375E-2</v>
@@ -753,7 +756,7 @@
         <v>43657</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <v>4.1666666666666664E-2</v>
@@ -768,7 +771,7 @@
         <v>43658</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
         <v>0.16319444444444445</v>
@@ -778,45 +781,60 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="D15" s="2" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43661</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="8">
-        <f>SUM(D3:D15)</f>
-        <v>2430</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8">
+        <f>SUM(D3:D16)</f>
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="8">
-        <f>D16/60</f>
-        <v>40.5</v>
-      </c>
-      <c r="E18" s="8">
-        <f>MOD(D16,60)</f>
-        <v>30</v>
-      </c>
-    </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="8">
+        <f>D17/60</f>
+        <v>45.916666666666664</v>
+      </c>
+      <c r="E19" s="8">
+        <f>MOD(D17,60)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8586D7C-9CEB-4698-888B-1BCCE7B3F270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB5685-B0D5-4A62-B18D-BA84EAF495AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -557,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B421838-5A32-49D6-9934-4D37D400905E}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -627,7 +627,7 @@
         <v>0.1875</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D15" si="0">C4*1440</f>
+        <f t="shared" ref="D4:D16" si="0">C4*1440</f>
         <v>270</v>
       </c>
     </row>
@@ -796,45 +796,60 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="D16" s="2" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43665</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.1875</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="8">
-        <f>SUM(D3:D16)</f>
-        <v>2755</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="10" t="s">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="8">
+        <f>SUM(D3:D17)</f>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="8">
-        <f>D17/60</f>
-        <v>45.916666666666664</v>
-      </c>
-      <c r="E19" s="8">
-        <f>MOD(D17,60)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
-      <c r="E20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <f>D18/60</f>
+        <v>50.416666666666664</v>
+      </c>
+      <c r="E20" s="8">
+        <f>MOD(D18,60)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/EPS-TimeLog.xlsx
+++ b/EPS-TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penpa\Desktop\Emily Pet Sitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB5685-B0D5-4A62-B18D-BA84EAF495AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24BCEF-653C-4ECC-ADF5-32EFE7784687}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4356D97F-6693-4CEA-B345-D63FB187AE92}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Website rough outline discussion</t>
   </si>
@@ -157,6 +157,11 @@
   <si>
     <t>Scheduler
 Calendar Page</t>
+  </si>
+  <si>
+    <t>Calendar Page
+Calendar Update Page
+Photos Page</t>
   </si>
 </sst>
 </file>
@@ -557,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B421838-5A32-49D6-9934-4D37D400905E}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +632,7 @@
         <v>0.1875</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D16" si="0">C4*1440</f>
+        <f t="shared" ref="D4:D17" si="0">C4*1440</f>
         <v>270</v>
       </c>
     </row>
@@ -811,45 +816,60 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="D17" s="2" t="s">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43676</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="8">
-        <f>SUM(D3:D17)</f>
-        <v>3025</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8">
+        <f>SUM(D3:D18)</f>
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="8">
-        <f>D18/60</f>
-        <v>50.416666666666664</v>
-      </c>
-      <c r="E20" s="8">
-        <f>MOD(D18,60)</f>
-        <v>25</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="8">
+        <f>D19/60</f>
+        <v>54.75</v>
+      </c>
+      <c r="E21" s="8">
+        <f>MOD(D19,60)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
